--- a/plots/visualization.xlsx
+++ b/plots/visualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHI\2_RESEARCH\Research\DigitalPathology\Code\to-plot\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69AA2D0-7A84-460F-B18D-149C1EA31754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8160F1CC-618E-45AA-ACDC-2C75F08BEBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2856" yWindow="3120" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{926DE7F2-CDE0-4147-BEE8-7CBD22212D3C}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{926DE7F2-CDE0-4147-BEE8-7CBD22212D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6389,8 +6389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263089A4-0087-43BA-A68E-79BA95B47405}">
   <dimension ref="C3:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6581,7 +6581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259F96C7-3557-48C3-9A14-564231DAA76A}">
   <dimension ref="C3:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="82" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>

--- a/plots/visualization.xlsx
+++ b/plots/visualization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CHI\2_RESEARCH\Research\DigitalPathology\Code\to-plot\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8160F1CC-618E-45AA-ACDC-2C75F08BEBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78095BE5-2746-4778-AEB3-FD1C957DD838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{926DE7F2-CDE0-4147-BEE8-7CBD22212D3C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{926DE7F2-CDE0-4147-BEE8-7CBD22212D3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6390,7 +6390,7 @@
   <dimension ref="C3:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
